--- a/ExcelTool/TestCases/BreakSheet Module_Hiptest.xlsx
+++ b/ExcelTool/TestCases/BreakSheet Module_Hiptest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27120" windowHeight="10275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="BreakSheet Module" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Test ID</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Test tags</t>
-  </si>
-  <si>
-    <t>Pre-condition</t>
   </si>
   <si>
     <t>Steps</t>
@@ -56,6 +53,14 @@
   <si>
     <t>When the user is setup in Elvis, they must be setup as a "technician" in 
 the user details.Login to Elvis.</t>
+  </si>
+  <si>
+    <t>Hover over "QA Field" tab, and select "QA Test".On the "Test Method" box 
+select "Tex-418-A", and then click on "Create New".Scroll down and click on 
+the "Specimen Taken" box.Fill in all required fields and select "Save". For 
+any missing field, an error message will pop up.Look for the document and 
+click "Edit"Click "Save &amp; Forward". For any missing field, an error message 
+will pop up.</t>
   </si>
   <si>
     <t>Document is placed in "QA Field&gt;QA Test&gt;QC Review" tab.</t>
@@ -89,6 +94,11 @@
 the user details.Produce a "Cylinder Break Sheet".</t>
   </si>
   <si>
+    <t xml:space="preserve">Hover over "QA Lab" and select "BreakSheet Legacy".If there is no record 
+the box will be empty.
+</t>
+  </si>
+  <si>
     <t>System search for a record.</t>
   </si>
   <si>
@@ -110,28 +120,49 @@
 the user details.BreakSheet document should have been previosly created.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hover over "QA Lab" tab, and select "BreakSheet Creation".Select one of the 
+document clicking on the proper checkbox.Click on "Produce Cylinder Break 
+Sheet" blue button.
+</t>
+  </si>
+  <si>
     <t>The document is not going to be available in that list anymore.</t>
+  </si>
+  <si>
+    <t>Pre-conditions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF950E"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -139,15 +170,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,58 +502,61 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="82.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="55.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="38" style="1" customWidth="1"/>
+    <col min="6" max="6" width="97.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.85546875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="19.5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="90">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="58.5" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -513,41 +587,47 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45">
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
